--- a/plots/basic_stats/single_var_stats/allmus_summary_var-governance.xlsx
+++ b/plots/basic_stats/single_var_stats/allmus_summary_var-governance.xlsx
@@ -382,14 +382,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>/Independent/Not for profit</t>
+          <t>Independent-Not_for_profit</t>
         </is>
       </c>
       <c r="B2">
-        <v>1625</v>
+        <v>1734</v>
       </c>
       <c r="C2">
-        <v>40.5</v>
+        <v>41</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -400,14 +400,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>/Government/Local Authority</t>
+          <t>Government-Local_Authority</t>
         </is>
       </c>
       <c r="B3">
-        <v>908</v>
+        <v>922</v>
       </c>
       <c r="C3">
-        <v>22.63</v>
+        <v>21.8</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -418,14 +418,14 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>/Independent/Private</t>
+          <t>Independent-Private</t>
         </is>
       </c>
       <c r="B4">
-        <v>675</v>
+        <v>751</v>
       </c>
       <c r="C4">
-        <v>16.82</v>
+        <v>17.76</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -436,14 +436,14 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>/Independent/Unknown</t>
+          <t>Independent-Unknown</t>
         </is>
       </c>
       <c r="B5">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C5">
-        <v>5.66</v>
+        <v>5.23</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -454,14 +454,14 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>/Independent/National Trust</t>
+          <t>Independent-National_Trust</t>
         </is>
       </c>
       <c r="B6">
         <v>185</v>
       </c>
       <c r="C6">
-        <v>4.61</v>
+        <v>4.37</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -472,14 +472,14 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>/University</t>
+          <t>University</t>
         </is>
       </c>
       <c r="B7">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C7">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -490,14 +490,14 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>/Unknown</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="B8">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C8">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -508,14 +508,14 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>/Government/National</t>
+          <t>Government-National</t>
         </is>
       </c>
       <c r="B9">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="C9">
-        <v>1.6</v>
+        <v>1.94</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -526,14 +526,14 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>/Independent/English Heritage</t>
+          <t>Independent-English_Heritage</t>
         </is>
       </c>
       <c r="B10">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C10">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -544,14 +544,14 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>/Independent/National Trust for Scotland</t>
+          <t>Independent-National_Trust_for_Scotland</t>
         </is>
       </c>
       <c r="B11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -562,14 +562,14 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>/Independent/Historic Environment Scotland</t>
+          <t>Independent-Historic_Environment_Scotland</t>
         </is>
       </c>
       <c r="B12">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C12">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -580,14 +580,14 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>/Government/Other</t>
+          <t>Government-Other</t>
         </is>
       </c>
       <c r="B13">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C13">
-        <v>0.42</v>
+        <v>0.24</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -598,7 +598,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>/Government/Cadw</t>
+          <t>Government-Cadw</t>
         </is>
       </c>
       <c r="B14">
